--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.6601787199881652</v>
+        <v>5.660178722650075</v>
       </c>
       <c r="C2">
-        <v>5.7673429145244892</v>
+        <v>5.767342917424215</v>
       </c>
       <c r="D2">
-        <v>5.0473231754825179</v>
+        <v>5.0473231833038046</v>
       </c>
       <c r="E2">
-        <v>2.7259678407418497</v>
+        <v>2.7259678430725249</v>
       </c>
       <c r="F2">
-        <v>5.0843734504919578</v>
+        <v>5.0843734524233417</v>
       </c>
       <c r="G2">
-        <v>8.2681547885241677</v>
+        <v>8.2681547876972967</v>
       </c>
       <c r="H2">
-        <v>3.3476912522839388</v>
+        <v>3.3476912559417511</v>
       </c>
       <c r="I2">
-        <v>5.1116517108590731</v>
+        <v>5.1116517086502355</v>
       </c>
       <c r="J2">
-        <v>5.8606249114589701</v>
+        <v>5.860624917147077</v>
       </c>
       <c r="K2">
-        <v>6.4984225529426869</v>
+        <v>6.4984225504769801</v>
       </c>
       <c r="L2">
-        <v>8.3034579141349312</v>
+        <v>8.3034579162533699</v>
       </c>
       <c r="N2">
-        <v>5.3463701103471664</v>
+        <v>5.3463701104715575</v>
       </c>
       <c r="O2">
-        <v>3.3779561066439969</v>
+        <v>3.3779561136375875</v>
       </c>
       <c r="P2">
-        <v>4.920187686715531</v>
+        <v>4.9201876890575837</v>
       </c>
       <c r="Q2">
-        <v>9.4285823038913357</v>
+        <v>9.4285823117586638</v>
       </c>
       <c r="S2">
-        <v>4.0235266166085948</v>
+        <v>4.0235266541557424</v>
       </c>
       <c r="V2">
-        <v>4.9313138324819903</v>
+        <v>4.9313138397987357</v>
       </c>
       <c r="W2">
-        <v>6.4048543409341105</v>
+        <v>6.4048543453638658</v>
       </c>
       <c r="X2">
-        <v>7.3951428464372011</v>
+        <v>7.3951428520850069</v>
       </c>
       <c r="AA2">
-        <v>3.6626663019115129</v>
+        <v>3.662666309807642</v>
       </c>
       <c r="AB2">
-        <v>4.7576899281283804</v>
+        <v>4.757689943893463</v>
       </c>
       <c r="AC2">
-        <v>7.3801639592168229</v>
+        <v>7.3801639588363273</v>
       </c>
       <c r="AD2">
-        <v>1.7673948948207518</v>
+        <v>1.7673949122112662</v>
       </c>
       <c r="AE2">
-        <v>5.5002208976479041</v>
+        <v>5.5002208982521745</v>
       </c>
       <c r="AF2">
-        <v>4.922243169771769</v>
+        <v>4.9222431711955261</v>
       </c>
       <c r="AG2">
-        <v>3.1701205067534994</v>
+        <v>3.1701205141936408</v>
       </c>
       <c r="AH2">
-        <v>3.4521698596956445</v>
+        <v>3.4521698698565162</v>
       </c>
       <c r="AI2">
-        <v>5.6314178915249826</v>
+        <v>5.6314179092187553</v>
       </c>
       <c r="AJ2">
-        <v>4.2263636731165262</v>
+        <v>4.2263636760849437</v>
       </c>
       <c r="AK2">
-        <v>5.0403216376003961</v>
+        <v>5.0403216445363874</v>
       </c>
       <c r="AL2">
-        <v>8.4764849585217323</v>
+        <v>8.4764849660193811</v>
       </c>
       <c r="AM2">
-        <v>3.4172092298047629</v>
+        <v>3.4172092427602738</v>
       </c>
       <c r="AN2">
-        <v>4.612755053105599</v>
+        <v>4.6127550627976177</v>
       </c>
       <c r="AO2">
-        <v>2.8196233064108482</v>
+        <v>2.819623319652691</v>
       </c>
       <c r="AQ2">
-        <v>6.2197392783052594</v>
+        <v>6.2197392895718515</v>
       </c>
       <c r="AR2">
-        <v>3.6278465788846033</v>
+        <v>3.6278465746879229</v>
       </c>
       <c r="AS2">
-        <v>2.8440676887418177</v>
+        <v>2.844067701338322</v>
       </c>
       <c r="AU2">
-        <v>3.1027013784564637</v>
+        <v>3.102701384564059</v>
       </c>
       <c r="AV2">
-        <v>3.5414286308048721</v>
+        <v>3.5414286461559024</v>
       </c>
       <c r="AW2">
-        <v>5.7318334500972892</v>
+        <v>5.7318334612424628</v>
       </c>
       <c r="AX2">
-        <v>3.618400894509473</v>
+        <v>3.6184009017949785</v>
       </c>
       <c r="AY2">
-        <v>2.0997679916363037</v>
+        <v>2.0997680045847886</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8289828857842627</v>
+        <v>5.8289828928154783</v>
       </c>
       <c r="C3">
-        <v>5.455026713219187</v>
+        <v>5.4550267213468997</v>
       </c>
       <c r="E3">
-        <v>3.736369047643942</v>
+        <v>3.7363690517152244</v>
       </c>
       <c r="F3">
-        <v>4.8146184757151627</v>
+        <v>4.8146184811330146</v>
       </c>
       <c r="G3">
-        <v>4.4040454973009302</v>
+        <v>4.4040455022785308</v>
       </c>
       <c r="H3">
-        <v>7.2988673056633271</v>
+        <v>7.298867307860804</v>
       </c>
       <c r="J3">
-        <v>4.5469948088934551</v>
+        <v>4.5469948230046642</v>
       </c>
       <c r="K3">
-        <v>-0.67150471819017432</v>
+        <v>-0.67150471377884946</v>
       </c>
       <c r="L3">
-        <v>4.5234647234270016</v>
+        <v>4.5234647318926058</v>
       </c>
       <c r="M3">
-        <v>7.4978502733960521</v>
+        <v>7.4978812409196749</v>
       </c>
       <c r="N3">
-        <v>5.1333176851922406</v>
+        <v>5.1333176912560852</v>
       </c>
       <c r="P3">
-        <v>4.2390133217823411</v>
+        <v>4.2390133359857076</v>
       </c>
       <c r="Q3">
-        <v>4.552909202629932</v>
+        <v>4.5529092080644995</v>
       </c>
       <c r="R3">
-        <v>6.9209747363371754</v>
+        <v>6.9209747495869554</v>
       </c>
       <c r="W3">
-        <v>5.2927172303608074</v>
+        <v>5.2927172415693091</v>
       </c>
       <c r="AA3">
-        <v>3.2239574640047821</v>
+        <v>3.2239574743422219</v>
       </c>
       <c r="AB3">
-        <v>3.4271125561941194</v>
+        <v>3.4271125653905976</v>
       </c>
       <c r="AC3">
-        <v>4.9270288601999894</v>
+        <v>4.9270288628547831</v>
       </c>
       <c r="AD3">
-        <v>3.2404047143605856</v>
+        <v>3.2404047213024834</v>
       </c>
       <c r="AE3">
-        <v>3.1012110280169076</v>
+        <v>3.1012110304980927</v>
       </c>
       <c r="AF3">
-        <v>5.5395515707182827</v>
+        <v>5.5395515777618618</v>
       </c>
       <c r="AG3">
-        <v>4.5573519747922324</v>
+        <v>4.5573519840827661</v>
       </c>
       <c r="AH3">
-        <v>5.4519877567143045</v>
+        <v>5.4519877669789611</v>
       </c>
       <c r="AI3">
-        <v>-0.81857267972544956</v>
+        <v>-0.81857267846387505</v>
       </c>
       <c r="AJ3">
-        <v>3.5552566280959867</v>
+        <v>3.5552566373863876</v>
       </c>
       <c r="AK3">
-        <v>4.9400084843970733</v>
+        <v>4.9400084912189497</v>
       </c>
       <c r="AL3">
-        <v>4.8143324266497665</v>
+        <v>4.8143324393019489</v>
       </c>
       <c r="AM3">
-        <v>3.4431492146214993</v>
+        <v>3.4431492307789546</v>
       </c>
       <c r="AN3">
-        <v>8.7070520279855259</v>
+        <v>8.7070520357914063</v>
       </c>
       <c r="AO3">
-        <v>3.6810870039043881</v>
+        <v>3.6810870096471016</v>
       </c>
       <c r="AP3">
-        <v>5.0519491113020347</v>
+        <v>5.0519491187815904</v>
       </c>
       <c r="AQ3">
-        <v>3.9840054113654331</v>
+        <v>3.9840054188088287</v>
       </c>
       <c r="AS3">
-        <v>4.7603367091551521</v>
+        <v>4.7603367112789865</v>
       </c>
       <c r="AT3">
-        <v>2.9253414140478595</v>
+        <v>2.9253414247303886</v>
       </c>
       <c r="AU3">
-        <v>4.4725405280836528</v>
+        <v>4.4725405302944168</v>
       </c>
       <c r="AV3">
-        <v>4.2691355695897322</v>
+        <v>4.269135576713035</v>
       </c>
       <c r="AW3">
-        <v>6.2516421333502405</v>
+        <v>6.2516421421640684</v>
       </c>
       <c r="AX3">
-        <v>6.3814227128636078</v>
+        <v>6.3814227227281997</v>
       </c>
       <c r="AY3">
-        <v>1.4036778619571273</v>
+        <v>1.403677873725327</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>5.660178722650075</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.767342917424215</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.0473231833038046</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.7259678430725249</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.0843734524233417</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.2681547876972967</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.3476912559417511</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.1116517086502355</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.860624917147077</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>6.4984225504769801</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.3034579162533699</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.3463701104715575</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.3779561136375875</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.9201876890575837</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.4285823117586638</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.0235266541557424</v>
+        <v>5.9302816132731548</v>
       </c>
       <c r="V2">
         <v>4.9313138397987357</v>
@@ -570,52 +465,55 @@
         <v>7.3951428520850069</v>
       </c>
       <c r="AA2">
-        <v>3.662666309807642</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.757689943893463</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.3801639588363273</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.7673949122112662</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.5002208982521745</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.9222431711955261</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.1701205141936408</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.4521698698565162</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.6314179092187553</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.2263636760849437</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.0403216445363874</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>8.4764849660193811</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.4172092427602738</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.6127550627976177</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.819623319652691</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.2197392895718515</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>3.6278465746879229</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.8289828928154783</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.4550267213468997</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.7363690517152244</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.8146184811330146</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.4040455022785308</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.298867307860804</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.5469948230046642</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.67150471377884946</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.5234647318926058</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.4978812409196749</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.1333176912560852</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.2390133359857076</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.5529092080644995</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.9209747495869554</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>5.2927172415693091</v>
       </c>
       <c r="AA3">
-        <v>3.2239574743422219</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.4271125653905976</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.9270288628547831</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.2404047213024834</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.1012110304980927</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.5395515777618618</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>4.5573519840827661</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.4519877669789611</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-0.81857267846387505</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.5552566373863876</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.9400084912189497</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.8143324393019489</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.4431492307789546</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>8.7070520357914063</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.6810870096471016</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.0519491187815904</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.9840054188088287</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>4.7603367112789865</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,18 +512,6 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5.6601787199881652</v>
-      </c>
-      <c r="C2">
-        <v>6.3943796222109395</v>
-      </c>
-      <c r="D2">
-        <v>5.0473231754825179</v>
-      </c>
-      <c r="E2">
-        <v>2.7259678407418497</v>
-      </c>
       <c r="F2">
         <v>5.0843734504919578</v>
       </c>
@@ -648,14 +631,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5.8289828857842627</v>
-      </c>
       <c r="C3">
-        <v>5.455026713219187</v>
+        <v>6.9209747495869554</v>
+      </c>
+      <c r="D3">
+        <v>8.4765657727640811</v>
       </c>
       <c r="E3">
-        <v>3.736369047643942</v>
+        <v>3.7829787449636769</v>
       </c>
       <c r="F3">
         <v>4.8146184757151627</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.6601787199881652</v>
-      </c>
-      <c r="C2">
-        <v>6.3943796222109395</v>
+        <v>5.5647991355085695</v>
       </c>
       <c r="D2">
-        <v>5.0473231754825179</v>
-      </c>
-      <c r="E2">
-        <v>2.7259678407418497</v>
+        <v>3.4172092427602738</v>
       </c>
       <c r="F2">
         <v>5.0843734504919578</v>
@@ -637,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.8289828857842627</v>
-      </c>
-      <c r="C3">
-        <v>5.455026713219187</v>
+        <v>5.1333176912560852</v>
+      </c>
+      <c r="D3">
+        <v>3.4431492307789546</v>
       </c>
       <c r="E3">
-        <v>2.2646536420398951</v>
+        <v>8.4765657727640811</v>
       </c>
       <c r="F3">
         <v>4.8146184757151627</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,112 +513,118 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.660178722650075</v>
+      </c>
+      <c r="C2">
+        <v>6.3943796244863904</v>
+      </c>
+      <c r="D2">
+        <v>5.0473231833038046</v>
+      </c>
+      <c r="E2">
+        <v>2.7259678430725249</v>
+      </c>
+      <c r="F2">
+        <v>5.0843734524233417</v>
+      </c>
+      <c r="G2">
+        <v>7.291504341853992</v>
+      </c>
+      <c r="H2">
+        <v>3.3476912559417511</v>
+      </c>
+      <c r="I2">
+        <v>4.2292123696258512</v>
+      </c>
+      <c r="J2">
+        <v>5.860624917147077</v>
+      </c>
+      <c r="K2">
+        <v>6.4984225504769801</v>
+      </c>
+      <c r="L2">
+        <v>8.2536811216721393</v>
+      </c>
+      <c r="N2">
         <v>5.5647991355085695</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>4.5727870487771787</v>
+      </c>
+      <c r="Q2">
+        <v>9.4285823117586638</v>
+      </c>
+      <c r="V2">
+        <v>4.2934765998362812</v>
+      </c>
+      <c r="W2">
+        <v>6.4048543453638658</v>
+      </c>
+      <c r="X2">
+        <v>7.3951428520850069</v>
+      </c>
+      <c r="AA2">
+        <v>3.662666309807642</v>
+      </c>
+      <c r="AB2">
+        <v>4.757689943893463</v>
+      </c>
+      <c r="AC2">
+        <v>7.3801639588363273</v>
+      </c>
+      <c r="AD2">
+        <v>1.7673949122112662</v>
+      </c>
+      <c r="AE2">
+        <v>5.5002208982521745</v>
+      </c>
+      <c r="AF2">
+        <v>4.9222431711955261</v>
+      </c>
+      <c r="AG2">
+        <v>3.1701205141936408</v>
+      </c>
+      <c r="AH2">
+        <v>3.4521698698565162</v>
+      </c>
+      <c r="AI2">
+        <v>5.6314179092187553</v>
+      </c>
+      <c r="AJ2">
+        <v>4.2263636760849437</v>
+      </c>
+      <c r="AK2">
+        <v>5.0403216445363874</v>
+      </c>
+      <c r="AL2">
+        <v>8.4764849660193811</v>
+      </c>
+      <c r="AM2">
         <v>3.4172092427602738</v>
       </c>
-      <c r="F2">
-        <v>5.0843734504919578</v>
-      </c>
-      <c r="G2">
-        <v>7.2915043424022832</v>
-      </c>
-      <c r="H2">
-        <v>3.3476912522839388</v>
-      </c>
-      <c r="I2">
-        <v>4.2292123731186537</v>
-      </c>
-      <c r="J2">
-        <v>5.8606249114589701</v>
-      </c>
-      <c r="K2">
-        <v>6.4984225529426869</v>
-      </c>
-      <c r="L2">
-        <v>8.2536811176687923</v>
-      </c>
-      <c r="N2">
-        <v>5.5647991342816248</v>
-      </c>
-      <c r="P2">
-        <v>4.5727870482115831</v>
-      </c>
-      <c r="Q2">
-        <v>9.4285823038913357</v>
-      </c>
-      <c r="V2">
-        <v>4.2934765892064828</v>
-      </c>
-      <c r="W2">
-        <v>6.4048543409341105</v>
-      </c>
-      <c r="X2">
-        <v>7.3951428464372011</v>
-      </c>
-      <c r="AA2">
-        <v>3.6626663019115129</v>
-      </c>
-      <c r="AB2">
-        <v>4.7576899281283804</v>
-      </c>
-      <c r="AC2">
-        <v>7.3801639592168229</v>
-      </c>
-      <c r="AD2">
-        <v>1.7673948948207518</v>
-      </c>
-      <c r="AE2">
-        <v>5.5002208976479041</v>
-      </c>
-      <c r="AF2">
-        <v>4.922243169771769</v>
-      </c>
-      <c r="AG2">
-        <v>3.1701205067534994</v>
-      </c>
-      <c r="AH2">
-        <v>3.4521698596956445</v>
-      </c>
-      <c r="AI2">
-        <v>5.6314178915249826</v>
-      </c>
-      <c r="AJ2">
-        <v>4.2263636731165262</v>
-      </c>
-      <c r="AK2">
-        <v>5.0403216376003961</v>
-      </c>
-      <c r="AL2">
-        <v>8.4764849585217323</v>
-      </c>
-      <c r="AM2">
-        <v>3.4172092298047629</v>
-      </c>
       <c r="AO2">
-        <v>2.8196233064108482</v>
+        <v>2.819623319652691</v>
       </c>
       <c r="AR2">
-        <v>3.6278465788846033</v>
+        <v>3.6278465746879229</v>
       </c>
       <c r="AS2">
-        <v>2.8440676887418177</v>
+        <v>2.844067701338322</v>
       </c>
       <c r="AU2">
-        <v>4.351803542292382</v>
+        <v>4.3518035509063218</v>
       </c>
       <c r="AV2">
-        <v>3.5414286308048721</v>
+        <v>3.5414286461559024</v>
       </c>
       <c r="AW2">
-        <v>5.7318334500972892</v>
+        <v>5.7318334612424628</v>
       </c>
       <c r="AX2">
-        <v>3.618400894509473</v>
+        <v>3.6184009017949785</v>
       </c>
       <c r="AY2">
-        <v>2.0997679916363037</v>
+        <v>2.0997680045847886</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -626,121 +632,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.8289828928154783</v>
+      </c>
+      <c r="C3">
+        <v>5.4550267213468997</v>
+      </c>
+      <c r="E3">
+        <v>2.2646536408950881</v>
+      </c>
+      <c r="F3">
+        <v>4.8146184811330146</v>
+      </c>
+      <c r="G3">
+        <v>4.4040455022785308</v>
+      </c>
+      <c r="H3">
+        <v>7.298867307860804</v>
+      </c>
+      <c r="J3">
+        <v>4.5469948230046642</v>
+      </c>
+      <c r="K3">
+        <v>0.12429940672455136</v>
+      </c>
+      <c r="L3">
+        <v>4.5234647318926058</v>
+      </c>
+      <c r="M3">
+        <v>8.4196291216915409</v>
+      </c>
+      <c r="N3">
         <v>5.1333176912560852</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.2390133359857076</v>
+      </c>
+      <c r="Q3">
+        <v>4.5529092080644995</v>
+      </c>
+      <c r="R3">
+        <v>6.9209747495869554</v>
+      </c>
+      <c r="W3">
+        <v>5.2927172415693091</v>
+      </c>
+      <c r="AA3">
+        <v>3.2239574743422219</v>
+      </c>
+      <c r="AB3">
+        <v>3.4271125653905976</v>
+      </c>
+      <c r="AC3">
+        <v>4.9270288628547831</v>
+      </c>
+      <c r="AD3">
+        <v>3.2404047213024834</v>
+      </c>
+      <c r="AE3">
+        <v>3.1012110304980927</v>
+      </c>
+      <c r="AF3">
+        <v>5.5395515777618618</v>
+      </c>
+      <c r="AG3">
+        <v>4.5573519840827661</v>
+      </c>
+      <c r="AH3">
+        <v>5.4519877669789611</v>
+      </c>
+      <c r="AI3">
+        <v>5.2151542752301818</v>
+      </c>
+      <c r="AJ3">
+        <v>3.5552566373863876</v>
+      </c>
+      <c r="AK3">
+        <v>4.9400084912189497</v>
+      </c>
+      <c r="AL3">
+        <v>4.8143324393019489</v>
+      </c>
+      <c r="AM3">
         <v>3.4431492307789546</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>8.4765657727640811</v>
       </c>
-      <c r="F3">
-        <v>4.8146184757151627</v>
-      </c>
-      <c r="G3">
-        <v>4.4040454973009302</v>
-      </c>
-      <c r="H3">
-        <v>7.2988673056633271</v>
-      </c>
-      <c r="J3">
-        <v>4.5469948088934551</v>
-      </c>
-      <c r="K3">
-        <v>0.12429940165847428</v>
-      </c>
-      <c r="L3">
-        <v>4.5234647234270016</v>
-      </c>
-      <c r="M3">
-        <v>8.4196582619664131</v>
-      </c>
-      <c r="N3">
-        <v>5.1333176851922406</v>
-      </c>
-      <c r="P3">
-        <v>4.2390133217823411</v>
-      </c>
-      <c r="Q3">
-        <v>4.552909202629932</v>
-      </c>
-      <c r="R3">
-        <v>6.9209747363371754</v>
-      </c>
-      <c r="W3">
-        <v>5.2927172303608074</v>
-      </c>
-      <c r="AA3">
-        <v>3.2239574640047821</v>
-      </c>
-      <c r="AB3">
-        <v>3.4271125561941194</v>
-      </c>
-      <c r="AC3">
-        <v>4.9270288601999894</v>
-      </c>
-      <c r="AD3">
-        <v>3.2404047143605856</v>
-      </c>
-      <c r="AE3">
-        <v>3.1012110280169076</v>
-      </c>
-      <c r="AF3">
-        <v>5.5395515707182827</v>
-      </c>
-      <c r="AG3">
-        <v>4.5573519747922324</v>
-      </c>
-      <c r="AH3">
-        <v>5.4519877567143045</v>
-      </c>
-      <c r="AI3">
-        <v>5.2151542600224596</v>
-      </c>
-      <c r="AJ3">
-        <v>3.5552566280959867</v>
-      </c>
-      <c r="AK3">
-        <v>4.9400084843970733</v>
-      </c>
-      <c r="AL3">
-        <v>4.8143324266497665</v>
-      </c>
-      <c r="AM3">
-        <v>3.4431492146214993</v>
-      </c>
-      <c r="AN3">
-        <v>8.4765657643661179</v>
-      </c>
       <c r="AO3">
-        <v>3.6810870039043881</v>
+        <v>3.6810870096471016</v>
       </c>
       <c r="AP3">
-        <v>5.0519491113020347</v>
+        <v>5.0519491187815904</v>
       </c>
       <c r="AQ3">
-        <v>3.7829787418121894</v>
+        <v>3.7829787449636769</v>
       </c>
       <c r="AS3">
-        <v>4.7603367091551521</v>
+        <v>4.7603367112789865</v>
       </c>
       <c r="AT3">
-        <v>2.9253414140478595</v>
+        <v>2.9253414247303886</v>
       </c>
       <c r="AU3">
-        <v>4.2534315301692942</v>
+        <v>4.2534315328052479</v>
       </c>
       <c r="AV3">
-        <v>4.2691355695897322</v>
+        <v>4.269135576713035</v>
       </c>
       <c r="AW3">
-        <v>6.2516421333502405</v>
+        <v>6.2516421421640684</v>
       </c>
       <c r="AX3">
-        <v>6.3814227128636078</v>
+        <v>6.3814227227281997</v>
       </c>
       <c r="AY3">
-        <v>1.4036778619571273</v>
+        <v>1.403677873725327</v>
       </c>
     </row>
   </sheetData>
